--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/1996AnnualReportonExchangeArrangements&ExchangeRestrictions.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/1996AnnualReportonExchangeArrangements&ExchangeRestrictions.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.026*"foreign" + 0.022*"exchange" + 0.015*"account" + 0.014*"currency" + 0.013*"import" + 0.012*"control" + 0.010*"nonresident" + 0.010*"may" + 0.010*"bank" + 0.010*"resident"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"control" + 0.001*"currency" + 0.000*"account" + 0.000*"import" + 0.000*"investment" + 0.000*"nonresident" + 0.000*"requirement" + 0.000*"resident"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.003*"exchange" + 0.002*"import" + 0.002*"currency" + 0.002*"account" + 0.002*"fund" + 0.002*"bank" + 0.002*"control" + 0.002*"requirement" + 0.001*"require"</t>
-  </si>
-  <si>
-    <t>0.009*"foreign" + 0.008*"exchange" + 0.007*"account" + 0.005*"currency" + 0.004*"may" + 0.004*"abroad" + 0.004*"export" + 0.004*"requirement" + 0.004*"control" + 0.003*"import"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"account" + 0.001*"import" + 0.001*"may" + 0.001*"abroad" + 0.001*"security" + 0.001*"payment" + 0.001*"resident" + 0.001*"currency"</t>
+    <t>0.039*"control" + 0.037*"security" + 0.035*"yes" + 0.033*"resident" + 0.030*"nonresident" + 0.029*"purchase" + 0.025*"issue" + 0.024*"transaction" + 0.023*"payment" + 0.022*"sale"</t>
+  </si>
+  <si>
+    <t>0.055*"exchange" + 0.048*"foreign" + 0.038*"account" + 0.036*"currency" + 0.027*"requirement" + 0.022*"fund" + 0.019*"bank" + 0.019*"import" + 0.018*"international" + 0.016*"may"</t>
+  </si>
+  <si>
+    <t>0.040*"foreign" + 0.022*"control" + 0.020*"trade" + 0.016*"account" + 0.015*"investment" + 0.015*"currency" + 0.014*"exchange" + 0.013*"person" + 0.013*"gold" + 0.013*"export"</t>
+  </si>
+  <si>
+    <t>0.021*"company" + 0.015*"may" + 0.015*"product" + 0.014*"year" + 0.013*"country" + 0.013*"fund" + 0.012*"investment" + 0.010*"republic" + 0.010*"certain" + 0.009*"nonresident"</t>
+  </si>
+  <si>
+    <t>0.027*"approval" + 0.025*"import" + 0.024*"prior" + 0.022*"require" + 0.020*"limit" + 0.019*"subject" + 0.013*"quantitative" + 0.013*"credit" + 0.012*"foreign" + 0.011*"tax"</t>
   </si>
 </sst>
 </file>
